--- a/data/fakecsv/dept_BYND.xlsx
+++ b/data/fakecsv/dept_BYND.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="105">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,286 +40,268 @@
     <t>BYND</t>
   </si>
   <si>
-    <t>DMKG2H0N1RD67GJ11</t>
-  </si>
-  <si>
-    <t>K53AA1N7XETW9DJKT</t>
-  </si>
-  <si>
-    <t>1FX1C21K5LD48GYZJ</t>
-  </si>
-  <si>
-    <t>0VSBD83TXU6TRM6PH</t>
-  </si>
-  <si>
-    <t>F6PK9ZTS4BU3P5DZV</t>
-  </si>
-  <si>
-    <t>LU81F58887B9HP2SJ</t>
-  </si>
-  <si>
-    <t>CA3AM7GH9EX19PT6K</t>
-  </si>
-  <si>
-    <t>HA2DESWN2W8VBVJDF</t>
-  </si>
-  <si>
-    <t>YZAZBRCJ32F4HGZSL</t>
-  </si>
-  <si>
-    <t>2N3G0ENN646MULV9X</t>
-  </si>
-  <si>
-    <t>58T7EAV520CSMZVFN</t>
-  </si>
-  <si>
-    <t>2VLTCNFE4VSSXKRRB</t>
-  </si>
-  <si>
-    <t>8X9L3LVG0W2KZ089B</t>
-  </si>
-  <si>
-    <t>7JPGDYLE31WJCLG39</t>
-  </si>
-  <si>
-    <t>TDH62GUK6P1CSF6P7</t>
-  </si>
-  <si>
-    <t>J20YRYRK0X019VUVF</t>
-  </si>
-  <si>
-    <t>7SS9NZ03322YCJ75L</t>
-  </si>
-  <si>
-    <t>7BK9RSDT0HUM12617</t>
-  </si>
-  <si>
-    <t>ZB09LWNX9KSXUN3NY</t>
-  </si>
-  <si>
-    <t>Y8LBLGUC9XLVH5UWW</t>
-  </si>
-  <si>
-    <t>JYTGJNC43S2BW146C</t>
-  </si>
-  <si>
-    <t>D3E2Y3AH6NU238Z06</t>
-  </si>
-  <si>
-    <t>WS7AXY6N605F143G8</t>
-  </si>
-  <si>
-    <t>ZB5A5AJJ8TC7BEZPV</t>
-  </si>
-  <si>
-    <t>NBDJK8GK8J1LZWLMV</t>
-  </si>
-  <si>
-    <t>67RMKN0Z2BRUJ7YXW</t>
-  </si>
-  <si>
-    <t>Y9A310747ERHEJZDZ</t>
-  </si>
-  <si>
-    <t>Y24K9D845Y7BTKN7R</t>
-  </si>
-  <si>
-    <t>ZGGDRPV500LAKVTXL</t>
-  </si>
-  <si>
-    <t>RSRVVZCU7M8AUPTMN</t>
-  </si>
-  <si>
-    <t>PC30G2EH10U5TNLST</t>
-  </si>
-  <si>
-    <t>679N4N9Y9ARU18DV1</t>
-  </si>
-  <si>
-    <t>JZ4MXX2P0A9DFG8WH</t>
-  </si>
-  <si>
-    <t>RVWC6KBNXKCV8JGRF</t>
-  </si>
-  <si>
-    <t>Y7CE1YW319DMCY9DW</t>
-  </si>
-  <si>
-    <t>64J82M3E6XUHUBB76</t>
-  </si>
-  <si>
-    <t>65JZLR0Z7ACUCR7W7</t>
-  </si>
-  <si>
-    <t>7V0H8B960LS4ALU8C</t>
-  </si>
-  <si>
-    <t>UT593TD97Y3EF9JX9</t>
-  </si>
-  <si>
-    <t>9LA4UPBAX25ASFWE1</t>
-  </si>
-  <si>
-    <t>A8W8UGY01PWY2FKBX</t>
-  </si>
-  <si>
-    <t>REYX8RUB2G5Z200KX</t>
-  </si>
-  <si>
-    <t>3Z8CX4P61EN8FJV0M</t>
-  </si>
-  <si>
-    <t>BNTVVJX7X3T3GKTK4</t>
-  </si>
-  <si>
-    <t>U6RRSNKC957H8AH8D</t>
-  </si>
-  <si>
-    <t>9KCR0LFC88SW1RMM3</t>
-  </si>
-  <si>
-    <t>NDLAJKK5XC8W06VDF</t>
-  </si>
-  <si>
-    <t>Cynthia Warner</t>
-  </si>
-  <si>
-    <t>Deborah Zamora</t>
-  </si>
-  <si>
-    <t>Carmen Flores</t>
-  </si>
-  <si>
-    <t>Chad Yang</t>
-  </si>
-  <si>
-    <t>Joseph Figueroa</t>
-  </si>
-  <si>
-    <t>Mary Drake</t>
-  </si>
-  <si>
-    <t>Heather Branch</t>
-  </si>
-  <si>
-    <t>Anna Woodward</t>
-  </si>
-  <si>
-    <t>Elizabeth Rivera</t>
-  </si>
-  <si>
-    <t>Krystal Pham</t>
-  </si>
-  <si>
-    <t>Deborah Gardner</t>
-  </si>
-  <si>
-    <t>Destiny Jimenez DVM</t>
-  </si>
-  <si>
-    <t>Claudia Mendoza</t>
-  </si>
-  <si>
-    <t>Christopher Cervantes</t>
-  </si>
-  <si>
-    <t>Mark Hart</t>
-  </si>
-  <si>
-    <t>Erica Burnett MD</t>
-  </si>
-  <si>
-    <t>David Pearson</t>
-  </si>
-  <si>
-    <t>Scott Morales</t>
-  </si>
-  <si>
-    <t>Elizabeth Campbell</t>
-  </si>
-  <si>
-    <t>Sarah Tran</t>
-  </si>
-  <si>
-    <t>Ronald Miller</t>
-  </si>
-  <si>
-    <t>Bobby Rios</t>
-  </si>
-  <si>
-    <t>Michael Taylor</t>
-  </si>
-  <si>
-    <t>David Marshall</t>
-  </si>
-  <si>
-    <t>Nicole Valdez</t>
-  </si>
-  <si>
-    <t>Colleen Mcfarland</t>
-  </si>
-  <si>
-    <t>Casey Brown</t>
-  </si>
-  <si>
-    <t>Christopher Klein</t>
-  </si>
-  <si>
-    <t>Kaitlyn Johnson</t>
-  </si>
-  <si>
-    <t>Jennifer Johnson</t>
-  </si>
-  <si>
-    <t>Katrina Warner</t>
-  </si>
-  <si>
-    <t>Julie Garza</t>
-  </si>
-  <si>
-    <t>Tracy Martinez</t>
-  </si>
-  <si>
-    <t>Andrea Flores</t>
-  </si>
-  <si>
-    <t>Erin Jones</t>
-  </si>
-  <si>
-    <t>Catherine Lopez</t>
-  </si>
-  <si>
-    <t>John Brewer</t>
-  </si>
-  <si>
-    <t>Robert Webb</t>
-  </si>
-  <si>
-    <t>Rachel Brooks</t>
-  </si>
-  <si>
-    <t>Connie Arias</t>
-  </si>
-  <si>
-    <t>Jordan Fox</t>
-  </si>
-  <si>
-    <t>James Bean</t>
-  </si>
-  <si>
-    <t>Jessica Harrison</t>
-  </si>
-  <si>
-    <t>Connie Thompson</t>
-  </si>
-  <si>
-    <t>Sandra Dorsey</t>
-  </si>
-  <si>
-    <t>Tina Payne</t>
-  </si>
-  <si>
-    <t>Brandy Blackwell</t>
+    <t>YH4WSFG730ANG86KB</t>
+  </si>
+  <si>
+    <t>UJ8LG0AZ8JVXJJDBR</t>
+  </si>
+  <si>
+    <t>NTTH1CKH251SLBRPM</t>
+  </si>
+  <si>
+    <t>8H13UDHZ59YW26BVC</t>
+  </si>
+  <si>
+    <t>UVEZB2NZ7VP21ZF3G</t>
+  </si>
+  <si>
+    <t>RXD2SSA33A3NDTGYL</t>
+  </si>
+  <si>
+    <t>Z5WDPZ4Z4VUZG4P49</t>
+  </si>
+  <si>
+    <t>7KCLFYPY1TAZ5JB6K</t>
+  </si>
+  <si>
+    <t>HF30JRPE9JW5F0LFT</t>
+  </si>
+  <si>
+    <t>30JZ9FXG9ZKPEYFUT</t>
+  </si>
+  <si>
+    <t>9U252P173HRRW4VB2</t>
+  </si>
+  <si>
+    <t>NPLDDYWEXC31V44KX</t>
+  </si>
+  <si>
+    <t>CSCZP9H10VM3S2SBG</t>
+  </si>
+  <si>
+    <t>P9KSA3E15UXWS1M2E</t>
+  </si>
+  <si>
+    <t>C4H7G5SP5RUCP9S9X</t>
+  </si>
+  <si>
+    <t>3F76HL5B8UV33Y9JF</t>
+  </si>
+  <si>
+    <t>VLBAKZ3F0PJ4EPG4A</t>
+  </si>
+  <si>
+    <t>V9H5NFN13B9Y4U95F</t>
+  </si>
+  <si>
+    <t>4MKY5CAC1186NNB7G</t>
+  </si>
+  <si>
+    <t>8R4YH5D58X7A8AC42</t>
+  </si>
+  <si>
+    <t>Y70EAV606L91K6UF9</t>
+  </si>
+  <si>
+    <t>0MX4JWVR3L77KSS8F</t>
+  </si>
+  <si>
+    <t>21T8VX5G202UZRS8V</t>
+  </si>
+  <si>
+    <t>ULP58J10779FRPJT0</t>
+  </si>
+  <si>
+    <t>BJC6SZ4S20NNPKYDH</t>
+  </si>
+  <si>
+    <t>354W7UZE8S4W7TM9A</t>
+  </si>
+  <si>
+    <t>08C261DC92WGSB49N</t>
+  </si>
+  <si>
+    <t>0XF1N6DT19R36C2FA</t>
+  </si>
+  <si>
+    <t>YXWRCT923J452XW22</t>
+  </si>
+  <si>
+    <t>MU01H688597XTREJT</t>
+  </si>
+  <si>
+    <t>J7F4V4ND7CGTWS8CC</t>
+  </si>
+  <si>
+    <t>734SF01Y7E02FVRF6</t>
+  </si>
+  <si>
+    <t>9HYHJD402FJ002TV2</t>
+  </si>
+  <si>
+    <t>3NRG52FE7RH8HSNKP</t>
+  </si>
+  <si>
+    <t>GYYSVC07X07ED6S17</t>
+  </si>
+  <si>
+    <t>EEAECNGV97Y85TXEX</t>
+  </si>
+  <si>
+    <t>AYBE5XDC0FLPSS720</t>
+  </si>
+  <si>
+    <t>DWAH85GZ01JR301HV</t>
+  </si>
+  <si>
+    <t>B5RDMY8434V20ZZJK</t>
+  </si>
+  <si>
+    <t>JZ8TVTJB1BSXSW3B7</t>
+  </si>
+  <si>
+    <t>ZUCRBW5F82E0YF4J6</t>
+  </si>
+  <si>
+    <t>AV0E6EH01J6LU054D</t>
+  </si>
+  <si>
+    <t>G4AEPM1153SXNCLSA</t>
+  </si>
+  <si>
+    <t>LNF7AH8B7N9D51396</t>
+  </si>
+  <si>
+    <t>David Jackson</t>
+  </si>
+  <si>
+    <t>Ruben Carlson</t>
+  </si>
+  <si>
+    <t>Tim Martinez</t>
+  </si>
+  <si>
+    <t>Richard Hardy</t>
+  </si>
+  <si>
+    <t>Jacob Dean</t>
+  </si>
+  <si>
+    <t>Carla Martinez</t>
+  </si>
+  <si>
+    <t>Jason Rodgers</t>
+  </si>
+  <si>
+    <t>Marcus Sharp</t>
+  </si>
+  <si>
+    <t>Mr. Jonathon Stanley</t>
+  </si>
+  <si>
+    <t>Amanda Johnson</t>
+  </si>
+  <si>
+    <t>Angela Bell</t>
+  </si>
+  <si>
+    <t>April Pierce</t>
+  </si>
+  <si>
+    <t>Christina Wallace</t>
+  </si>
+  <si>
+    <t>Kristen Johnson</t>
+  </si>
+  <si>
+    <t>Elizabeth Hubbard</t>
+  </si>
+  <si>
+    <t>Bryan Adams</t>
+  </si>
+  <si>
+    <t>Cynthia Medina</t>
+  </si>
+  <si>
+    <t>Elizabeth Church</t>
+  </si>
+  <si>
+    <t>Joseph Hernandez</t>
+  </si>
+  <si>
+    <t>Heidi Gardner</t>
+  </si>
+  <si>
+    <t>Kathryn Carter</t>
+  </si>
+  <si>
+    <t>Kylie Bryant</t>
+  </si>
+  <si>
+    <t>Dana Porter</t>
+  </si>
+  <si>
+    <t>Christopher Jimenez</t>
+  </si>
+  <si>
+    <t>Mark Alvarez</t>
+  </si>
+  <si>
+    <t>Robert Garcia</t>
+  </si>
+  <si>
+    <t>Evan Sullivan</t>
+  </si>
+  <si>
+    <t>Cameron Campbell</t>
+  </si>
+  <si>
+    <t>Michael White</t>
+  </si>
+  <si>
+    <t>Christopher Davis</t>
+  </si>
+  <si>
+    <t>Christopher Wilson</t>
+  </si>
+  <si>
+    <t>Kathleen Henderson</t>
+  </si>
+  <si>
+    <t>Samuel Atkinson</t>
+  </si>
+  <si>
+    <t>William Thomas</t>
+  </si>
+  <si>
+    <t>Ethan Carroll</t>
+  </si>
+  <si>
+    <t>Stephen Holder</t>
+  </si>
+  <si>
+    <t>Justin Stanton</t>
+  </si>
+  <si>
+    <t>Marissa Suarez PhD</t>
+  </si>
+  <si>
+    <t>Austin Scott</t>
+  </si>
+  <si>
+    <t>Theresa Schultz DDS</t>
+  </si>
+  <si>
+    <t>Erik Allen</t>
+  </si>
+  <si>
+    <t>Kristi Rice</t>
+  </si>
+  <si>
+    <t>Travis Henderson</t>
+  </si>
+  <si>
+    <t>Kelly Gardner PhD</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -704,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F218"/>
+  <dimension ref="A1:F204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,10 +723,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -758,10 +740,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -775,10 +757,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -792,10 +774,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -809,10 +791,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -840,13 +822,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -857,13 +839,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -874,13 +856,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -891,13 +873,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -908,13 +890,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -925,13 +907,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -942,13 +924,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -959,13 +941,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -976,13 +958,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -993,13 +975,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1010,13 +992,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1027,13 +1009,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1044,13 +1026,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1061,13 +1043,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1078,13 +1060,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1095,13 +1077,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1112,13 +1094,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1129,13 +1111,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1146,13 +1128,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1163,13 +1145,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1180,13 +1162,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1197,13 +1179,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1214,13 +1196,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1231,13 +1213,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1248,13 +1230,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1268,10 +1250,10 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1285,10 +1267,10 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1302,10 +1284,10 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1319,10 +1301,10 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1336,10 +1318,10 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1353,10 +1335,10 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1367,13 +1349,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1387,10 +1369,10 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1404,10 +1386,10 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1421,10 +1403,10 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1438,10 +1420,10 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1455,10 +1437,10 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1469,10 +1451,10 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
         <v>102</v>
@@ -1486,10 +1468,10 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
         <v>103</v>
@@ -1503,10 +1485,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
         <v>104</v>
@@ -1523,10 +1505,10 @@
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1540,10 +1522,10 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1554,13 +1536,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1571,13 +1553,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1588,13 +1570,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1608,10 +1590,10 @@
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1625,10 +1607,10 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1639,13 +1621,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1656,13 +1638,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E56" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1673,13 +1655,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1690,13 +1672,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1707,13 +1689,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1724,13 +1706,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1741,13 +1723,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1758,13 +1740,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1775,13 +1757,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1792,13 +1774,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1809,13 +1791,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1826,13 +1808,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1843,13 +1825,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1863,10 +1845,10 @@
         <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1877,13 +1859,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1894,13 +1876,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1911,13 +1893,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E71" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1928,13 +1910,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1945,13 +1927,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1962,13 +1944,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E74" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1979,13 +1961,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1996,13 +1978,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2013,13 +1995,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2030,13 +2012,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2047,13 +2029,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E79" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2064,13 +2046,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E80" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2081,13 +2063,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E81" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2098,13 +2080,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E82" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2115,13 +2097,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2132,13 +2114,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D84" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E84" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2149,13 +2131,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2166,13 +2148,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E86" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2183,13 +2165,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2200,13 +2182,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E88" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2217,13 +2199,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E89" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2234,13 +2216,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E90" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2251,13 +2233,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2268,13 +2250,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D92" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2285,13 +2267,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2302,13 +2284,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2319,13 +2301,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E95" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2336,13 +2318,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E96" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2353,13 +2335,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E97" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2370,13 +2352,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D98" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E98" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2387,13 +2369,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E99" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2404,13 +2386,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D100" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E100" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2421,13 +2403,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D101" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E101" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2438,13 +2420,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D102" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E102" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2455,13 +2437,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D103" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2472,13 +2454,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D104" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E104" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2489,13 +2471,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D105" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E105" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2506,13 +2488,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D106" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E106" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2523,13 +2505,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D107" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E107" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2540,13 +2522,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D108" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E108" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2557,13 +2539,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D109" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E109" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2574,13 +2556,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D110" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E110" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2591,13 +2573,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D111" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E111" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2608,13 +2590,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D112" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E112" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2625,13 +2607,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D113" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2642,13 +2624,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D114" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E114" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2659,13 +2641,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D115" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2676,13 +2658,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D116" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2693,13 +2675,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D117" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E117" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2710,13 +2692,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E118" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2727,13 +2709,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E119" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2747,10 +2729,10 @@
         <v>34</v>
       </c>
       <c r="D120" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E120" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2761,13 +2743,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D121" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E121" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2778,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D122" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E122" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2795,13 +2777,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D123" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E123" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2812,13 +2794,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D124" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E124" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2829,13 +2811,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D125" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E125" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2846,13 +2828,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D126" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E126" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2863,13 +2845,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D127" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E127" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2883,10 +2865,10 @@
         <v>36</v>
       </c>
       <c r="D128" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E128" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2900,10 +2882,10 @@
         <v>36</v>
       </c>
       <c r="D129" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E129" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2917,10 +2899,10 @@
         <v>36</v>
       </c>
       <c r="D130" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E130" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2934,10 +2916,10 @@
         <v>36</v>
       </c>
       <c r="D131" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E131" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2948,13 +2930,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D132" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E132" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2968,10 +2950,10 @@
         <v>37</v>
       </c>
       <c r="D133" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E133" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2982,13 +2964,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E134" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3002,10 +2984,10 @@
         <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E135" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3019,10 +3001,10 @@
         <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E136" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3036,10 +3018,10 @@
         <v>38</v>
       </c>
       <c r="D137" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E137" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3050,13 +3032,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E138" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3067,13 +3049,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D139" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E139" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3087,10 +3069,10 @@
         <v>39</v>
       </c>
       <c r="D140" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E140" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3104,10 +3086,10 @@
         <v>39</v>
       </c>
       <c r="D141" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E141" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3121,10 +3103,10 @@
         <v>39</v>
       </c>
       <c r="D142" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E142" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3135,13 +3117,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D143" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E143" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3152,13 +3134,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E144" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3169,13 +3151,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E145" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3186,13 +3168,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E146" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3203,13 +3185,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D147" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E147" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3220,13 +3202,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E148" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3240,7 +3222,7 @@
         <v>40</v>
       </c>
       <c r="D149" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E149" t="s">
         <v>102</v>
@@ -3257,7 +3239,7 @@
         <v>40</v>
       </c>
       <c r="D150" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E150" t="s">
         <v>103</v>
@@ -3274,7 +3256,7 @@
         <v>40</v>
       </c>
       <c r="D151" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E151" t="s">
         <v>104</v>
@@ -3288,13 +3270,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D152" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E152" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3305,13 +3287,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D153" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E153" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3322,13 +3304,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D154" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E154" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3339,13 +3321,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D155" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E155" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3359,10 +3341,10 @@
         <v>41</v>
       </c>
       <c r="D156" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E156" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3376,10 +3358,10 @@
         <v>41</v>
       </c>
       <c r="D157" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E157" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3393,10 +3375,10 @@
         <v>41</v>
       </c>
       <c r="D158" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E158" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3407,13 +3389,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D159" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E159" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3424,13 +3406,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D160" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E160" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3444,10 +3426,10 @@
         <v>42</v>
       </c>
       <c r="D161" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E161" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3461,10 +3443,10 @@
         <v>42</v>
       </c>
       <c r="D162" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E162" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3478,10 +3460,10 @@
         <v>42</v>
       </c>
       <c r="D163" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E163" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3495,10 +3477,10 @@
         <v>42</v>
       </c>
       <c r="D164" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E164" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3509,13 +3491,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D165" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E165" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3526,13 +3508,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D166" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E166" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3543,13 +3525,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D167" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E167" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3563,10 +3545,10 @@
         <v>43</v>
       </c>
       <c r="D168" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E168" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3580,10 +3562,10 @@
         <v>44</v>
       </c>
       <c r="D169" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E169" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3597,10 +3579,10 @@
         <v>44</v>
       </c>
       <c r="D170" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E170" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3614,10 +3596,10 @@
         <v>44</v>
       </c>
       <c r="D171" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E171" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3631,10 +3613,10 @@
         <v>44</v>
       </c>
       <c r="D172" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E172" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3645,13 +3627,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D173" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E173" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3665,10 +3647,10 @@
         <v>45</v>
       </c>
       <c r="D174" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E174" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3682,10 +3664,10 @@
         <v>45</v>
       </c>
       <c r="D175" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E175" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3699,10 +3681,10 @@
         <v>45</v>
       </c>
       <c r="D176" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E176" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3716,10 +3698,10 @@
         <v>45</v>
       </c>
       <c r="D177" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E177" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3730,13 +3712,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D178" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E178" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3747,13 +3729,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D179" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E179" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3764,13 +3746,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D180" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E180" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3784,10 +3766,10 @@
         <v>46</v>
       </c>
       <c r="D181" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E181" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3801,10 +3783,10 @@
         <v>46</v>
       </c>
       <c r="D182" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E182" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3818,10 +3800,10 @@
         <v>46</v>
       </c>
       <c r="D183" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E183" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3835,10 +3817,10 @@
         <v>46</v>
       </c>
       <c r="D184" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E184" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3852,10 +3834,10 @@
         <v>46</v>
       </c>
       <c r="D185" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E185" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3866,13 +3848,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D186" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E186" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3883,13 +3865,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D187" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E187" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3900,13 +3882,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D188" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E188" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3920,10 +3902,10 @@
         <v>47</v>
       </c>
       <c r="D189" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E189" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3934,13 +3916,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D190" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E190" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3951,13 +3933,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D191" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E191" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3971,10 +3953,10 @@
         <v>48</v>
       </c>
       <c r="D192" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E192" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3985,13 +3967,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D193" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E193" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4002,13 +3984,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D194" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E194" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4019,13 +4001,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D195" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E195" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4036,13 +4018,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D196" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E196" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4053,13 +4035,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D197" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E197" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4070,13 +4052,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D198" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E198" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4087,13 +4069,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D199" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E199" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4104,13 +4086,13 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D200" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E200" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4121,13 +4103,13 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D201" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E201" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4138,13 +4120,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D202" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E202" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4155,13 +4137,13 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D203" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E203" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4172,251 +4154,13 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D204" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E204" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
-        <v>6</v>
-      </c>
-      <c r="B205" t="s">
-        <v>7</v>
-      </c>
-      <c r="C205" t="s">
-        <v>51</v>
-      </c>
-      <c r="D205" t="s">
-        <v>98</v>
-      </c>
-      <c r="E205" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
-        <v>6</v>
-      </c>
-      <c r="B206" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206" t="s">
-        <v>52</v>
-      </c>
-      <c r="D206" t="s">
         <v>99</v>
-      </c>
-      <c r="E206" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
-        <v>6</v>
-      </c>
-      <c r="B207" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207" t="s">
-        <v>53</v>
-      </c>
-      <c r="D207" t="s">
-        <v>100</v>
-      </c>
-      <c r="E207" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" t="s">
-        <v>53</v>
-      </c>
-      <c r="D208" t="s">
-        <v>100</v>
-      </c>
-      <c r="E208" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" t="s">
-        <v>53</v>
-      </c>
-      <c r="D209" t="s">
-        <v>100</v>
-      </c>
-      <c r="E209" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" t="s">
-        <v>54</v>
-      </c>
-      <c r="D210" t="s">
-        <v>101</v>
-      </c>
-      <c r="E210" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" t="s">
-        <v>54</v>
-      </c>
-      <c r="D211" t="s">
-        <v>101</v>
-      </c>
-      <c r="E211" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212" t="s">
-        <v>54</v>
-      </c>
-      <c r="D212" t="s">
-        <v>101</v>
-      </c>
-      <c r="E212" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>6</v>
-      </c>
-      <c r="B213" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" t="s">
-        <v>54</v>
-      </c>
-      <c r="D213" t="s">
-        <v>101</v>
-      </c>
-      <c r="E213" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" t="s">
-        <v>54</v>
-      </c>
-      <c r="D214" t="s">
-        <v>101</v>
-      </c>
-      <c r="E214" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>6</v>
-      </c>
-      <c r="B215" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" t="s">
-        <v>54</v>
-      </c>
-      <c r="D215" t="s">
-        <v>101</v>
-      </c>
-      <c r="E215" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>6</v>
-      </c>
-      <c r="B216" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" t="s">
-        <v>54</v>
-      </c>
-      <c r="D216" t="s">
-        <v>101</v>
-      </c>
-      <c r="E216" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>6</v>
-      </c>
-      <c r="B217" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" t="s">
-        <v>54</v>
-      </c>
-      <c r="D217" t="s">
-        <v>101</v>
-      </c>
-      <c r="E217" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>6</v>
-      </c>
-      <c r="B218" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" t="s">
-        <v>54</v>
-      </c>
-      <c r="D218" t="s">
-        <v>101</v>
-      </c>
-      <c r="E218" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
